--- a/biology/Zoologie/Gaeana_maculata/Gaeana_maculata.xlsx
+++ b/biology/Zoologie/Gaeana_maculata/Gaeana_maculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gaeana maculata, ou en langue vernaculaire Cigale noire mouchetée, est une espèce de cigales du genre Gaeana que l'on trouve dans les zones boisées d'Asie du Sud-Est tropicale, notamment au pied des collines[1]. Elle se rencontre fréquemment en avril.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gaeana maculata, ou en langue vernaculaire Cigale noire mouchetée, est une espèce de cigales du genre Gaeana que l'on trouve dans les zones boisées d'Asie du Sud-Est tropicale, notamment au pied des collines. Elle se rencontre fréquemment en avril.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce atteint 4 cm et avec les ailes déployées, 9 cm en moyenne et jusqu'à 12 cm. Son nom est dû à ses taches généralement jaunes (mais qui peuvent être également blanches ou vertes) sur les ailes et la partie supérieure du thorax qui contrastent avec la couleur noire du reste du corps de l'insecte.
 Comme les autres cigales, ses yeux sont proéminents et ses antennes, courtes.
